--- a/Погода/температура-по-декадам.xlsx
+++ b/Погода/температура-по-декадам.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E151"/>
+  <dimension ref="A1:E111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,7 +450,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="B2" t="n">
         <v>2</v>
@@ -462,12 +462,12 @@
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>-8.24</v>
+        <v>-4.83</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -479,12 +479,12 @@
         <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>-10.2</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="B4" t="n">
         <v>2</v>
@@ -496,12 +496,12 @@
         <v>3</v>
       </c>
       <c r="E4" t="n">
-        <v>-3.9</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="B5" t="n">
         <v>3</v>
@@ -513,12 +513,12 @@
         <v>4</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.52</v>
+        <v>2.83</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="B6" t="n">
         <v>3</v>
@@ -530,12 +530,12 @@
         <v>5</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.85</v>
+        <v>2.72</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="B7" t="n">
         <v>3</v>
@@ -547,12 +547,12 @@
         <v>6</v>
       </c>
       <c r="E7" t="n">
-        <v>5.6</v>
+        <v>7.6909</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="B8" t="n">
         <v>4</v>
@@ -564,12 +564,12 @@
         <v>7</v>
       </c>
       <c r="E8" t="n">
-        <v>11.53</v>
+        <v>3.07</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="B9" t="n">
         <v>4</v>
@@ -581,12 +581,12 @@
         <v>8</v>
       </c>
       <c r="E9" t="n">
-        <v>12.33</v>
+        <v>10.8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="B10" t="n">
         <v>4</v>
@@ -598,12 +598,12 @@
         <v>9</v>
       </c>
       <c r="E10" t="n">
-        <v>9.949999999999999</v>
+        <v>15.65</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="B11" t="n">
         <v>5</v>
@@ -615,12 +615,12 @@
         <v>10</v>
       </c>
       <c r="E11" t="n">
-        <v>20.09</v>
+        <v>13.29</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="B12" t="n">
         <v>2</v>
@@ -632,12 +632,12 @@
         <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>-2.46</v>
+        <v>-3.44</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="B13" t="n">
         <v>2</v>
@@ -649,12 +649,12 @@
         <v>2</v>
       </c>
       <c r="E13" t="n">
-        <v>-15.29</v>
+        <v>-1.67</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="B14" t="n">
         <v>2</v>
@@ -666,12 +666,12 @@
         <v>3</v>
       </c>
       <c r="E14" t="n">
-        <v>-13.2375</v>
+        <v>2.225</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="B15" t="n">
         <v>3</v>
@@ -683,12 +683,12 @@
         <v>4</v>
       </c>
       <c r="E15" t="n">
-        <v>-1.99</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="B16" t="n">
         <v>3</v>
@@ -700,12 +700,12 @@
         <v>5</v>
       </c>
       <c r="E16" t="n">
-        <v>0.98</v>
+        <v>7.93</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="B17" t="n">
         <v>3</v>
@@ -717,12 +717,12 @@
         <v>6</v>
       </c>
       <c r="E17" t="n">
-        <v>0.6182</v>
+        <v>1.5818</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="B18" t="n">
         <v>4</v>
@@ -734,12 +734,12 @@
         <v>7</v>
       </c>
       <c r="E18" t="n">
-        <v>5.9</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="B19" t="n">
         <v>4</v>
@@ -751,12 +751,12 @@
         <v>8</v>
       </c>
       <c r="E19" t="n">
-        <v>5.99</v>
+        <v>7.33</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="B20" t="n">
         <v>4</v>
@@ -768,12 +768,12 @@
         <v>9</v>
       </c>
       <c r="E20" t="n">
-        <v>15.57</v>
+        <v>11.32</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="B21" t="n">
         <v>5</v>
@@ -785,12 +785,12 @@
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>16.46</v>
+        <v>14.67</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="B22" t="n">
         <v>2</v>
@@ -802,12 +802,12 @@
         <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>-16.13</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="B23" t="n">
         <v>2</v>
@@ -819,12 +819,12 @@
         <v>2</v>
       </c>
       <c r="E23" t="n">
-        <v>-12.71</v>
+        <v>-1.29</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="B24" t="n">
         <v>2</v>
@@ -836,12 +836,12 @@
         <v>3</v>
       </c>
       <c r="E24" t="n">
-        <v>-2.1778</v>
+        <v>0.6778</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="B25" t="n">
         <v>3</v>
@@ -853,12 +853,12 @@
         <v>4</v>
       </c>
       <c r="E25" t="n">
-        <v>-5.43</v>
+        <v>2.42</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="B26" t="n">
         <v>3</v>
@@ -870,12 +870,12 @@
         <v>5</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.73</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="B27" t="n">
         <v>3</v>
@@ -887,12 +887,12 @@
         <v>6</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.0364</v>
+        <v>3.5909</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="B28" t="n">
         <v>4</v>
@@ -904,12 +904,12 @@
         <v>7</v>
       </c>
       <c r="E28" t="n">
-        <v>2.6</v>
+        <v>7.21</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="B29" t="n">
         <v>4</v>
@@ -921,12 +921,12 @@
         <v>8</v>
       </c>
       <c r="E29" t="n">
-        <v>10.34</v>
+        <v>11.13</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="B30" t="n">
         <v>4</v>
@@ -938,12 +938,12 @@
         <v>9</v>
       </c>
       <c r="E30" t="n">
-        <v>19.2</v>
+        <v>12.28</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="B31" t="n">
         <v>5</v>
@@ -955,12 +955,12 @@
         <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>16.05</v>
+        <v>19.38</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="B32" t="n">
         <v>2</v>
@@ -972,12 +972,12 @@
         <v>1</v>
       </c>
       <c r="E32" t="n">
-        <v>-0.55</v>
+        <v>-9.470000000000001</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="B33" t="n">
         <v>2</v>
@@ -989,12 +989,12 @@
         <v>2</v>
       </c>
       <c r="E33" t="n">
-        <v>-4.42</v>
+        <v>-1.41</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="B34" t="n">
         <v>2</v>
@@ -1006,12 +1006,12 @@
         <v>3</v>
       </c>
       <c r="E34" t="n">
-        <v>-1.925</v>
+        <v>-0.1125</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="B35" t="n">
         <v>3</v>
@@ -1023,12 +1023,12 @@
         <v>4</v>
       </c>
       <c r="E35" t="n">
-        <v>-5.61</v>
+        <v>3.17</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="B36" t="n">
         <v>3</v>
@@ -1040,12 +1040,12 @@
         <v>5</v>
       </c>
       <c r="E36" t="n">
-        <v>-4.01</v>
+        <v>4.79</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="B37" t="n">
         <v>3</v>
@@ -1057,12 +1057,12 @@
         <v>6</v>
       </c>
       <c r="E37" t="n">
-        <v>-3.6364</v>
+        <v>3.6636</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="B38" t="n">
         <v>4</v>
@@ -1074,12 +1074,12 @@
         <v>7</v>
       </c>
       <c r="E38" t="n">
-        <v>4.13</v>
+        <v>6.69</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="B39" t="n">
         <v>4</v>
@@ -1091,12 +1091,12 @@
         <v>8</v>
       </c>
       <c r="E39" t="n">
-        <v>12.7</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="B40" t="n">
         <v>4</v>
@@ -1108,12 +1108,12 @@
         <v>9</v>
       </c>
       <c r="E40" t="n">
-        <v>9.41</v>
+        <v>10.2</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="B41" t="n">
         <v>5</v>
@@ -1125,12 +1125,12 @@
         <v>10</v>
       </c>
       <c r="E41" t="n">
-        <v>16.5</v>
+        <v>12.27</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="B42" t="n">
         <v>2</v>
@@ -1142,12 +1142,12 @@
         <v>1</v>
       </c>
       <c r="E42" t="n">
-        <v>-4.83</v>
+        <v>-7.48</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="B43" t="n">
         <v>2</v>
@@ -1159,12 +1159,12 @@
         <v>2</v>
       </c>
       <c r="E43" t="n">
-        <v>1.15</v>
+        <v>-4.96</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="B44" t="n">
         <v>2</v>
@@ -1176,12 +1176,12 @@
         <v>3</v>
       </c>
       <c r="E44" t="n">
-        <v>0.825</v>
+        <v>-12.475</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="B45" t="n">
         <v>3</v>
@@ -1193,12 +1193,12 @@
         <v>4</v>
       </c>
       <c r="E45" t="n">
-        <v>2.83</v>
+        <v>-7.57</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="B46" t="n">
         <v>3</v>
@@ -1210,12 +1210,12 @@
         <v>5</v>
       </c>
       <c r="E46" t="n">
-        <v>2.72</v>
+        <v>-3.23</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="B47" t="n">
         <v>3</v>
@@ -1227,12 +1227,12 @@
         <v>6</v>
       </c>
       <c r="E47" t="n">
-        <v>7.6909</v>
+        <v>0.5727</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="B48" t="n">
         <v>4</v>
@@ -1244,12 +1244,12 @@
         <v>7</v>
       </c>
       <c r="E48" t="n">
-        <v>3.07</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="B49" t="n">
         <v>4</v>
@@ -1261,12 +1261,12 @@
         <v>8</v>
       </c>
       <c r="E49" t="n">
-        <v>10.8</v>
+        <v>11.41</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="B50" t="n">
         <v>4</v>
@@ -1278,12 +1278,12 @@
         <v>9</v>
       </c>
       <c r="E50" t="n">
-        <v>15.65</v>
+        <v>11.62</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="B51" t="n">
         <v>5</v>
@@ -1295,12 +1295,12 @@
         <v>10</v>
       </c>
       <c r="E51" t="n">
-        <v>13.29</v>
+        <v>18.78</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="B52" t="n">
         <v>2</v>
@@ -1312,12 +1312,12 @@
         <v>1</v>
       </c>
       <c r="E52" t="n">
-        <v>-3.44</v>
+        <v>-1.38</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="B53" t="n">
         <v>2</v>
@@ -1329,12 +1329,12 @@
         <v>2</v>
       </c>
       <c r="E53" t="n">
-        <v>-1.67</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="B54" t="n">
         <v>2</v>
@@ -1346,12 +1346,12 @@
         <v>3</v>
       </c>
       <c r="E54" t="n">
-        <v>2.225</v>
+        <v>-2.3125</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="B55" t="n">
         <v>3</v>
@@ -1363,12 +1363,12 @@
         <v>4</v>
       </c>
       <c r="E55" t="n">
-        <v>2.88</v>
+        <v>-0.29</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="B56" t="n">
         <v>3</v>
@@ -1380,12 +1380,12 @@
         <v>5</v>
       </c>
       <c r="E56" t="n">
-        <v>7.93</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="B57" t="n">
         <v>3</v>
@@ -1397,12 +1397,12 @@
         <v>6</v>
       </c>
       <c r="E57" t="n">
-        <v>1.5818</v>
+        <v>4.2545</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="B58" t="n">
         <v>4</v>
@@ -1414,12 +1414,12 @@
         <v>7</v>
       </c>
       <c r="E58" t="n">
-        <v>4.7</v>
+        <v>8.529999999999999</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="B59" t="n">
         <v>4</v>
@@ -1431,12 +1431,12 @@
         <v>8</v>
       </c>
       <c r="E59" t="n">
-        <v>7.33</v>
+        <v>8.710000000000001</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="B60" t="n">
         <v>4</v>
@@ -1448,12 +1448,12 @@
         <v>9</v>
       </c>
       <c r="E60" t="n">
-        <v>11.32</v>
+        <v>16.48</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="B61" t="n">
         <v>5</v>
@@ -1465,12 +1465,12 @@
         <v>10</v>
       </c>
       <c r="E61" t="n">
-        <v>14.67</v>
+        <v>16.97</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="B62" t="n">
         <v>2</v>
@@ -1482,12 +1482,12 @@
         <v>1</v>
       </c>
       <c r="E62" t="n">
-        <v>0.7</v>
+        <v>-2.35</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="B63" t="n">
         <v>2</v>
@@ -1499,12 +1499,12 @@
         <v>2</v>
       </c>
       <c r="E63" t="n">
-        <v>-1.29</v>
+        <v>2.29</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="B64" t="n">
         <v>2</v>
@@ -1516,12 +1516,12 @@
         <v>3</v>
       </c>
       <c r="E64" t="n">
-        <v>0.6778</v>
+        <v>2.5222</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="B65" t="n">
         <v>3</v>
@@ -1533,12 +1533,12 @@
         <v>4</v>
       </c>
       <c r="E65" t="n">
-        <v>2.42</v>
+        <v>5.29</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="B66" t="n">
         <v>3</v>
@@ -1550,12 +1550,12 @@
         <v>5</v>
       </c>
       <c r="E66" t="n">
-        <v>0.82</v>
+        <v>5.17</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="B67" t="n">
         <v>3</v>
@@ -1567,12 +1567,12 @@
         <v>6</v>
       </c>
       <c r="E67" t="n">
-        <v>3.5909</v>
+        <v>5.1455</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="B68" t="n">
         <v>4</v>
@@ -1584,12 +1584,12 @@
         <v>7</v>
       </c>
       <c r="E68" t="n">
-        <v>7.21</v>
+        <v>6.71</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="B69" t="n">
         <v>4</v>
@@ -1601,12 +1601,12 @@
         <v>8</v>
       </c>
       <c r="E69" t="n">
-        <v>11.13</v>
+        <v>5.53</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="B70" t="n">
         <v>4</v>
@@ -1618,12 +1618,12 @@
         <v>9</v>
       </c>
       <c r="E70" t="n">
-        <v>12.28</v>
+        <v>8.390000000000001</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="B71" t="n">
         <v>5</v>
@@ -1635,12 +1635,12 @@
         <v>10</v>
       </c>
       <c r="E71" t="n">
-        <v>19.38</v>
+        <v>15.82</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="B72" t="n">
         <v>2</v>
@@ -1652,12 +1652,12 @@
         <v>1</v>
       </c>
       <c r="E72" t="n">
-        <v>-9.470000000000001</v>
+        <v>-8.85</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="B73" t="n">
         <v>2</v>
@@ -1669,12 +1669,12 @@
         <v>2</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.41</v>
+        <v>-12.81</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="B74" t="n">
         <v>2</v>
@@ -1686,12 +1686,12 @@
         <v>3</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.1125</v>
+        <v>-6.0125</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="B75" t="n">
         <v>3</v>
@@ -1703,12 +1703,12 @@
         <v>4</v>
       </c>
       <c r="E75" t="n">
-        <v>3.17</v>
+        <v>-3.17</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="B76" t="n">
         <v>3</v>
@@ -1720,12 +1720,12 @@
         <v>5</v>
       </c>
       <c r="E76" t="n">
-        <v>4.79</v>
+        <v>-1.08</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="B77" t="n">
         <v>3</v>
@@ -1737,12 +1737,12 @@
         <v>6</v>
       </c>
       <c r="E77" t="n">
-        <v>3.6636</v>
+        <v>5.4818</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="B78" t="n">
         <v>4</v>
@@ -1754,12 +1754,12 @@
         <v>7</v>
       </c>
       <c r="E78" t="n">
-        <v>6.69</v>
+        <v>6.65</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="B79" t="n">
         <v>4</v>
@@ -1771,12 +1771,12 @@
         <v>8</v>
       </c>
       <c r="E79" t="n">
-        <v>3.9</v>
+        <v>15.16</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="B80" t="n">
         <v>4</v>
@@ -1788,12 +1788,12 @@
         <v>9</v>
       </c>
       <c r="E80" t="n">
-        <v>10.2</v>
+        <v>7.59</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="B81" t="n">
         <v>5</v>
@@ -1805,12 +1805,12 @@
         <v>10</v>
       </c>
       <c r="E81" t="n">
-        <v>12.27</v>
+        <v>11.09</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="B82" t="n">
         <v>2</v>
@@ -1822,12 +1822,12 @@
         <v>1</v>
       </c>
       <c r="E82" t="n">
-        <v>-7.48</v>
+        <v>-2.6</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="B83" t="n">
         <v>2</v>
@@ -1839,12 +1839,12 @@
         <v>2</v>
       </c>
       <c r="E83" t="n">
-        <v>-4.96</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="B84" t="n">
         <v>2</v>
@@ -1856,12 +1856,12 @@
         <v>3</v>
       </c>
       <c r="E84" t="n">
-        <v>-12.475</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="B85" t="n">
         <v>3</v>
@@ -1873,12 +1873,12 @@
         <v>4</v>
       </c>
       <c r="E85" t="n">
-        <v>-7.57</v>
+        <v>-1.1</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="B86" t="n">
         <v>3</v>
@@ -1890,12 +1890,12 @@
         <v>5</v>
       </c>
       <c r="E86" t="n">
-        <v>-3.23</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="B87" t="n">
         <v>3</v>
@@ -1907,12 +1907,12 @@
         <v>6</v>
       </c>
       <c r="E87" t="n">
-        <v>0.5727</v>
+        <v>3.8091</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="B88" t="n">
         <v>4</v>
@@ -1924,12 +1924,12 @@
         <v>7</v>
       </c>
       <c r="E88" t="n">
-        <v>9.1</v>
+        <v>3.98</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="B89" t="n">
         <v>4</v>
@@ -1941,12 +1941,12 @@
         <v>8</v>
       </c>
       <c r="E89" t="n">
-        <v>11.41</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="B90" t="n">
         <v>4</v>
@@ -1958,12 +1958,12 @@
         <v>9</v>
       </c>
       <c r="E90" t="n">
-        <v>11.62</v>
+        <v>10.08</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="B91" t="n">
         <v>5</v>
@@ -1975,12 +1975,12 @@
         <v>10</v>
       </c>
       <c r="E91" t="n">
-        <v>18.78</v>
+        <v>11.89</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="B92" t="n">
         <v>2</v>
@@ -1992,12 +1992,12 @@
         <v>1</v>
       </c>
       <c r="E92" t="n">
-        <v>-1.38</v>
+        <v>-1.63</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="B93" t="n">
         <v>2</v>
@@ -2009,12 +2009,12 @@
         <v>2</v>
       </c>
       <c r="E93" t="n">
-        <v>0.64</v>
+        <v>-4.04</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="B94" t="n">
         <v>2</v>
@@ -2026,12 +2026,12 @@
         <v>3</v>
       </c>
       <c r="E94" t="n">
-        <v>-2.3125</v>
+        <v>-5.6125</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="B95" t="n">
         <v>3</v>
@@ -2043,12 +2043,12 @@
         <v>4</v>
       </c>
       <c r="E95" t="n">
-        <v>-0.29</v>
+        <v>-1.63</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="B96" t="n">
         <v>3</v>
@@ -2060,12 +2060,12 @@
         <v>5</v>
       </c>
       <c r="E96" t="n">
-        <v>1.73</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="B97" t="n">
         <v>3</v>
@@ -2077,12 +2077,12 @@
         <v>6</v>
       </c>
       <c r="E97" t="n">
-        <v>4.2545</v>
+        <v>6.3727</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="B98" t="n">
         <v>4</v>
@@ -2094,12 +2094,12 @@
         <v>7</v>
       </c>
       <c r="E98" t="n">
-        <v>8.529999999999999</v>
+        <v>10.67</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="B99" t="n">
         <v>4</v>
@@ -2111,12 +2111,12 @@
         <v>8</v>
       </c>
       <c r="E99" t="n">
-        <v>8.710000000000001</v>
+        <v>12.82</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="B100" t="n">
         <v>4</v>
@@ -2128,12 +2128,12 @@
         <v>9</v>
       </c>
       <c r="E100" t="n">
-        <v>16.48</v>
+        <v>14.81</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="B101" t="n">
         <v>5</v>
@@ -2145,12 +2145,12 @@
         <v>10</v>
       </c>
       <c r="E101" t="n">
-        <v>16.97</v>
+        <v>10.16</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="B102" t="n">
         <v>2</v>
@@ -2162,12 +2162,12 @@
         <v>1</v>
       </c>
       <c r="E102" t="n">
-        <v>-2.35</v>
+        <v>-4.44</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="B103" t="n">
         <v>2</v>
@@ -2179,12 +2179,12 @@
         <v>2</v>
       </c>
       <c r="E103" t="n">
-        <v>2.29</v>
+        <v>-6.01</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="B104" t="n">
         <v>2</v>
@@ -2196,12 +2196,12 @@
         <v>3</v>
       </c>
       <c r="E104" t="n">
-        <v>2.5222</v>
+        <v>-0.3444</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="B105" t="n">
         <v>3</v>
@@ -2213,12 +2213,12 @@
         <v>4</v>
       </c>
       <c r="E105" t="n">
-        <v>5.29</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="B106" t="n">
         <v>3</v>
@@ -2230,12 +2230,12 @@
         <v>5</v>
       </c>
       <c r="E106" t="n">
-        <v>5.17</v>
+        <v>3.42</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="B107" t="n">
         <v>3</v>
@@ -2247,12 +2247,12 @@
         <v>6</v>
       </c>
       <c r="E107" t="n">
-        <v>5.1455</v>
+        <v>7.3455</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="B108" t="n">
         <v>4</v>
@@ -2264,12 +2264,12 @@
         <v>7</v>
       </c>
       <c r="E108" t="n">
-        <v>6.71</v>
+        <v>12.93</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="B109" t="n">
         <v>4</v>
@@ -2281,12 +2281,12 @@
         <v>8</v>
       </c>
       <c r="E109" t="n">
-        <v>5.53</v>
+        <v>11.56</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="B110" t="n">
         <v>4</v>
@@ -2298,12 +2298,12 @@
         <v>9</v>
       </c>
       <c r="E110" t="n">
-        <v>8.390000000000001</v>
+        <v>15.55</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="B111" t="n">
         <v>5</v>
@@ -2315,686 +2315,6 @@
         <v>10</v>
       </c>
       <c r="E111" t="n">
-        <v>15.82</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B112" t="n">
-        <v>2</v>
-      </c>
-      <c r="C112" t="n">
-        <v>1</v>
-      </c>
-      <c r="D112" t="n">
-        <v>1</v>
-      </c>
-      <c r="E112" t="n">
-        <v>-8.85</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B113" t="n">
-        <v>2</v>
-      </c>
-      <c r="C113" t="n">
-        <v>2</v>
-      </c>
-      <c r="D113" t="n">
-        <v>2</v>
-      </c>
-      <c r="E113" t="n">
-        <v>-12.81</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B114" t="n">
-        <v>2</v>
-      </c>
-      <c r="C114" t="n">
-        <v>3</v>
-      </c>
-      <c r="D114" t="n">
-        <v>3</v>
-      </c>
-      <c r="E114" t="n">
-        <v>-6.0125</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B115" t="n">
-        <v>3</v>
-      </c>
-      <c r="C115" t="n">
-        <v>1</v>
-      </c>
-      <c r="D115" t="n">
-        <v>4</v>
-      </c>
-      <c r="E115" t="n">
-        <v>-3.17</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B116" t="n">
-        <v>3</v>
-      </c>
-      <c r="C116" t="n">
-        <v>2</v>
-      </c>
-      <c r="D116" t="n">
-        <v>5</v>
-      </c>
-      <c r="E116" t="n">
-        <v>-1.08</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B117" t="n">
-        <v>3</v>
-      </c>
-      <c r="C117" t="n">
-        <v>3</v>
-      </c>
-      <c r="D117" t="n">
-        <v>6</v>
-      </c>
-      <c r="E117" t="n">
-        <v>5.4818</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B118" t="n">
-        <v>4</v>
-      </c>
-      <c r="C118" t="n">
-        <v>1</v>
-      </c>
-      <c r="D118" t="n">
-        <v>7</v>
-      </c>
-      <c r="E118" t="n">
-        <v>6.65</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B119" t="n">
-        <v>4</v>
-      </c>
-      <c r="C119" t="n">
-        <v>2</v>
-      </c>
-      <c r="D119" t="n">
-        <v>8</v>
-      </c>
-      <c r="E119" t="n">
-        <v>15.16</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B120" t="n">
-        <v>4</v>
-      </c>
-      <c r="C120" t="n">
-        <v>3</v>
-      </c>
-      <c r="D120" t="n">
-        <v>9</v>
-      </c>
-      <c r="E120" t="n">
-        <v>7.59</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B121" t="n">
-        <v>5</v>
-      </c>
-      <c r="C121" t="n">
-        <v>1</v>
-      </c>
-      <c r="D121" t="n">
-        <v>10</v>
-      </c>
-      <c r="E121" t="n">
-        <v>11.09</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B122" t="n">
-        <v>2</v>
-      </c>
-      <c r="C122" t="n">
-        <v>1</v>
-      </c>
-      <c r="D122" t="n">
-        <v>1</v>
-      </c>
-      <c r="E122" t="n">
-        <v>-2.6</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B123" t="n">
-        <v>2</v>
-      </c>
-      <c r="C123" t="n">
-        <v>2</v>
-      </c>
-      <c r="D123" t="n">
-        <v>2</v>
-      </c>
-      <c r="E123" t="n">
-        <v>1.47</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B124" t="n">
-        <v>2</v>
-      </c>
-      <c r="C124" t="n">
-        <v>3</v>
-      </c>
-      <c r="D124" t="n">
-        <v>3</v>
-      </c>
-      <c r="E124" t="n">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B125" t="n">
-        <v>3</v>
-      </c>
-      <c r="C125" t="n">
-        <v>1</v>
-      </c>
-      <c r="D125" t="n">
-        <v>4</v>
-      </c>
-      <c r="E125" t="n">
-        <v>-1.1</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B126" t="n">
-        <v>3</v>
-      </c>
-      <c r="C126" t="n">
-        <v>2</v>
-      </c>
-      <c r="D126" t="n">
-        <v>5</v>
-      </c>
-      <c r="E126" t="n">
-        <v>1.15</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B127" t="n">
-        <v>3</v>
-      </c>
-      <c r="C127" t="n">
-        <v>3</v>
-      </c>
-      <c r="D127" t="n">
-        <v>6</v>
-      </c>
-      <c r="E127" t="n">
-        <v>3.8091</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B128" t="n">
-        <v>4</v>
-      </c>
-      <c r="C128" t="n">
-        <v>1</v>
-      </c>
-      <c r="D128" t="n">
-        <v>7</v>
-      </c>
-      <c r="E128" t="n">
-        <v>3.98</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B129" t="n">
-        <v>4</v>
-      </c>
-      <c r="C129" t="n">
-        <v>2</v>
-      </c>
-      <c r="D129" t="n">
-        <v>8</v>
-      </c>
-      <c r="E129" t="n">
-        <v>7.3</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B130" t="n">
-        <v>4</v>
-      </c>
-      <c r="C130" t="n">
-        <v>3</v>
-      </c>
-      <c r="D130" t="n">
-        <v>9</v>
-      </c>
-      <c r="E130" t="n">
-        <v>10.08</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B131" t="n">
-        <v>5</v>
-      </c>
-      <c r="C131" t="n">
-        <v>1</v>
-      </c>
-      <c r="D131" t="n">
-        <v>10</v>
-      </c>
-      <c r="E131" t="n">
-        <v>11.89</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B132" t="n">
-        <v>2</v>
-      </c>
-      <c r="C132" t="n">
-        <v>1</v>
-      </c>
-      <c r="D132" t="n">
-        <v>1</v>
-      </c>
-      <c r="E132" t="n">
-        <v>-1.63</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B133" t="n">
-        <v>2</v>
-      </c>
-      <c r="C133" t="n">
-        <v>2</v>
-      </c>
-      <c r="D133" t="n">
-        <v>2</v>
-      </c>
-      <c r="E133" t="n">
-        <v>-4.04</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B134" t="n">
-        <v>2</v>
-      </c>
-      <c r="C134" t="n">
-        <v>3</v>
-      </c>
-      <c r="D134" t="n">
-        <v>3</v>
-      </c>
-      <c r="E134" t="n">
-        <v>-5.6125</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B135" t="n">
-        <v>3</v>
-      </c>
-      <c r="C135" t="n">
-        <v>1</v>
-      </c>
-      <c r="D135" t="n">
-        <v>4</v>
-      </c>
-      <c r="E135" t="n">
-        <v>-1.63</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B136" t="n">
-        <v>3</v>
-      </c>
-      <c r="C136" t="n">
-        <v>2</v>
-      </c>
-      <c r="D136" t="n">
-        <v>5</v>
-      </c>
-      <c r="E136" t="n">
-        <v>2.58</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B137" t="n">
-        <v>3</v>
-      </c>
-      <c r="C137" t="n">
-        <v>3</v>
-      </c>
-      <c r="D137" t="n">
-        <v>6</v>
-      </c>
-      <c r="E137" t="n">
-        <v>6.3727</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B138" t="n">
-        <v>4</v>
-      </c>
-      <c r="C138" t="n">
-        <v>1</v>
-      </c>
-      <c r="D138" t="n">
-        <v>7</v>
-      </c>
-      <c r="E138" t="n">
-        <v>10.67</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B139" t="n">
-        <v>4</v>
-      </c>
-      <c r="C139" t="n">
-        <v>2</v>
-      </c>
-      <c r="D139" t="n">
-        <v>8</v>
-      </c>
-      <c r="E139" t="n">
-        <v>12.82</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B140" t="n">
-        <v>4</v>
-      </c>
-      <c r="C140" t="n">
-        <v>3</v>
-      </c>
-      <c r="D140" t="n">
-        <v>9</v>
-      </c>
-      <c r="E140" t="n">
-        <v>14.81</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B141" t="n">
-        <v>5</v>
-      </c>
-      <c r="C141" t="n">
-        <v>1</v>
-      </c>
-      <c r="D141" t="n">
-        <v>10</v>
-      </c>
-      <c r="E141" t="n">
-        <v>10.16</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B142" t="n">
-        <v>2</v>
-      </c>
-      <c r="C142" t="n">
-        <v>1</v>
-      </c>
-      <c r="D142" t="n">
-        <v>1</v>
-      </c>
-      <c r="E142" t="n">
-        <v>-4.44</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B143" t="n">
-        <v>2</v>
-      </c>
-      <c r="C143" t="n">
-        <v>2</v>
-      </c>
-      <c r="D143" t="n">
-        <v>2</v>
-      </c>
-      <c r="E143" t="n">
-        <v>-6.01</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B144" t="n">
-        <v>2</v>
-      </c>
-      <c r="C144" t="n">
-        <v>3</v>
-      </c>
-      <c r="D144" t="n">
-        <v>3</v>
-      </c>
-      <c r="E144" t="n">
-        <v>-0.3444</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B145" t="n">
-        <v>3</v>
-      </c>
-      <c r="C145" t="n">
-        <v>1</v>
-      </c>
-      <c r="D145" t="n">
-        <v>4</v>
-      </c>
-      <c r="E145" t="n">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B146" t="n">
-        <v>3</v>
-      </c>
-      <c r="C146" t="n">
-        <v>2</v>
-      </c>
-      <c r="D146" t="n">
-        <v>5</v>
-      </c>
-      <c r="E146" t="n">
-        <v>3.42</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B147" t="n">
-        <v>3</v>
-      </c>
-      <c r="C147" t="n">
-        <v>3</v>
-      </c>
-      <c r="D147" t="n">
-        <v>6</v>
-      </c>
-      <c r="E147" t="n">
-        <v>7.3455</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B148" t="n">
-        <v>4</v>
-      </c>
-      <c r="C148" t="n">
-        <v>1</v>
-      </c>
-      <c r="D148" t="n">
-        <v>7</v>
-      </c>
-      <c r="E148" t="n">
-        <v>12.93</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B149" t="n">
-        <v>4</v>
-      </c>
-      <c r="C149" t="n">
-        <v>2</v>
-      </c>
-      <c r="D149" t="n">
-        <v>8</v>
-      </c>
-      <c r="E149" t="n">
-        <v>11.56</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B150" t="n">
-        <v>4</v>
-      </c>
-      <c r="C150" t="n">
-        <v>3</v>
-      </c>
-      <c r="D150" t="n">
-        <v>9</v>
-      </c>
-      <c r="E150" t="n">
-        <v>15.55</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B151" t="n">
-        <v>5</v>
-      </c>
-      <c r="C151" t="n">
-        <v>1</v>
-      </c>
-      <c r="D151" t="n">
-        <v>10</v>
-      </c>
-      <c r="E151" t="n">
         <v>8.470000000000001</v>
       </c>
     </row>
